--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Rspo3-Fzd8.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Rspo3-Fzd8.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
+        <v>2</v>
+      </c>
+      <c r="F2">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G2">
+        <v>0.1043256666666667</v>
+      </c>
+      <c r="H2">
+        <v>0.312977</v>
+      </c>
+      <c r="I2">
+        <v>0.02547563162231953</v>
+      </c>
+      <c r="J2">
+        <v>0.02547563162231953</v>
+      </c>
+      <c r="K2">
+        <v>3</v>
+      </c>
+      <c r="L2">
         <v>1</v>
       </c>
-      <c r="F2">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G2">
-        <v>0.06937033333333334</v>
-      </c>
-      <c r="H2">
-        <v>0.208111</v>
-      </c>
-      <c r="I2">
-        <v>0.01708561286819356</v>
-      </c>
-      <c r="J2">
-        <v>0.01708561286819356</v>
-      </c>
-      <c r="K2">
-        <v>2</v>
-      </c>
-      <c r="L2">
-        <v>0.6666666666666666</v>
-      </c>
       <c r="M2">
-        <v>2.219727</v>
+        <v>3.024701</v>
       </c>
       <c r="N2">
-        <v>6.659181</v>
+        <v>9.074103000000001</v>
       </c>
       <c r="O2">
-        <v>0.1284523376175785</v>
+        <v>0.1596375877334842</v>
       </c>
       <c r="P2">
-        <v>0.1284523376175785</v>
+        <v>0.1596375877334843</v>
       </c>
       <c r="Q2">
-        <v>0.153983201899</v>
+        <v>0.3155539482923334</v>
       </c>
       <c r="R2">
-        <v>1.385848817091</v>
+        <v>2.839985534631</v>
       </c>
       <c r="S2">
-        <v>0.002194686912548443</v>
+        <v>0.00406686837817396</v>
       </c>
       <c r="T2">
-        <v>0.002194686912548443</v>
+        <v>0.00406686837817396</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.06937033333333334</v>
+        <v>0.1043256666666667</v>
       </c>
       <c r="H3">
-        <v>0.208111</v>
+        <v>0.312977</v>
       </c>
       <c r="I3">
-        <v>0.01708561286819356</v>
+        <v>0.02547563162231953</v>
       </c>
       <c r="J3">
-        <v>0.01708561286819356</v>
+        <v>0.02547563162231953</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>34.517578</v>
       </c>
       <c r="O3">
-        <v>0.6658271614778304</v>
+        <v>0.6072559333217162</v>
       </c>
       <c r="P3">
-        <v>0.6658271614778303</v>
+        <v>0.6072559333217163</v>
       </c>
       <c r="Q3">
-        <v>0.7981652972397778</v>
+        <v>1.200356445522889</v>
       </c>
       <c r="R3">
-        <v>7.183487675158001</v>
+        <v>10.803208009706</v>
       </c>
       <c r="S3">
-        <v>0.01137606511813841</v>
+        <v>0.01547022845777188</v>
       </c>
       <c r="T3">
-        <v>0.01137606511813841</v>
+        <v>0.01547022845777188</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,22 +655,22 @@
         <v>24</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.06937033333333334</v>
+        <v>0.1043256666666667</v>
       </c>
       <c r="H4">
-        <v>0.208111</v>
+        <v>0.312977</v>
       </c>
       <c r="I4">
-        <v>0.01708561286819356</v>
+        <v>0.02547563162231953</v>
       </c>
       <c r="J4">
-        <v>0.01708561286819356</v>
+        <v>0.02547563162231953</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.544296666666666</v>
+        <v>4.368554666666666</v>
       </c>
       <c r="N4">
-        <v>10.63289</v>
+        <v>13.105664</v>
       </c>
       <c r="O4">
-        <v>0.2051032365887898</v>
+        <v>0.2305634602787257</v>
       </c>
       <c r="P4">
-        <v>0.2051032365887898</v>
+        <v>0.2305634602787257</v>
       </c>
       <c r="Q4">
-        <v>0.2458690411988889</v>
+        <v>0.4557523779697777</v>
       </c>
       <c r="R4">
-        <v>2.21282137079</v>
+        <v>4.101771401728</v>
       </c>
       <c r="S4">
-        <v>0.003504314498369576</v>
+        <v>0.005873749779628117</v>
       </c>
       <c r="T4">
-        <v>0.003504314498369575</v>
+        <v>0.005873749779628118</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>25</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.06937033333333334</v>
+        <v>0.1043256666666667</v>
       </c>
       <c r="H5">
-        <v>0.208111</v>
+        <v>0.312977</v>
       </c>
       <c r="I5">
-        <v>0.01708561286819356</v>
+        <v>0.02547563162231953</v>
       </c>
       <c r="J5">
-        <v>0.01708561286819356</v>
+        <v>0.02547563162231953</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.01066666666666667</v>
+        <v>0.04818333333333333</v>
       </c>
       <c r="N5">
-        <v>0.032</v>
+        <v>0.14455</v>
       </c>
       <c r="O5">
-        <v>0.0006172643158013743</v>
+        <v>0.002543018666073676</v>
       </c>
       <c r="P5">
-        <v>0.0006172643158013743</v>
+        <v>0.002543018666073677</v>
       </c>
       <c r="Q5">
-        <v>0.0007399502222222222</v>
+        <v>0.005026758372222222</v>
       </c>
       <c r="R5">
-        <v>0.006659552000000001</v>
+        <v>0.04524082535000001</v>
       </c>
       <c r="S5">
-        <v>1.054633913713265E-05</v>
+        <v>6.478500674557538E-05</v>
       </c>
       <c r="T5">
-        <v>1.054633913713265E-05</v>
+        <v>6.47850067455754E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,40 +791,40 @@
         <v>11.972371</v>
       </c>
       <c r="I6">
-        <v>0.9829143871318065</v>
+        <v>0.9745243683776804</v>
       </c>
       <c r="J6">
-        <v>0.9829143871318063</v>
+        <v>0.9745243683776804</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>2.219727</v>
+        <v>3.024701</v>
       </c>
       <c r="N6">
-        <v>6.659181</v>
+        <v>9.074103000000001</v>
       </c>
       <c r="O6">
-        <v>0.1284523376175785</v>
+        <v>0.1596375877334842</v>
       </c>
       <c r="P6">
-        <v>0.1284523376175785</v>
+        <v>0.1596375877334843</v>
       </c>
       <c r="Q6">
-        <v>8.858465054239002</v>
+        <v>12.07094751202367</v>
       </c>
       <c r="R6">
-        <v>79.726185488151</v>
+        <v>108.638527608213</v>
       </c>
       <c r="S6">
-        <v>0.1262576507050301</v>
+        <v>0.1555707193553103</v>
       </c>
       <c r="T6">
-        <v>0.12625765070503</v>
+        <v>0.1555707193553103</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>11.972371</v>
       </c>
       <c r="I7">
-        <v>0.9829143871318065</v>
+        <v>0.9745243683776804</v>
       </c>
       <c r="J7">
-        <v>0.9829143871318063</v>
+        <v>0.9745243683776804</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,22 +871,22 @@
         <v>34.517578</v>
       </c>
       <c r="O7">
-        <v>0.6658271614778304</v>
+        <v>0.6072559333217162</v>
       </c>
       <c r="P7">
-        <v>0.6658271614778303</v>
+        <v>0.6072559333217163</v>
       </c>
       <c r="Q7">
-        <v>45.91747220415978</v>
+        <v>45.91747220415977</v>
       </c>
       <c r="R7">
-        <v>413.2572498374381</v>
+        <v>413.257249837438</v>
       </c>
       <c r="S7">
-        <v>0.654451096359692</v>
+        <v>0.5917857048639443</v>
       </c>
       <c r="T7">
-        <v>0.6544510963596918</v>
+        <v>0.5917857048639444</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>11.972371</v>
       </c>
       <c r="I8">
-        <v>0.9829143871318065</v>
+        <v>0.9745243683776804</v>
       </c>
       <c r="J8">
-        <v>0.9829143871318063</v>
+        <v>0.9745243683776804</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>3.544296666666666</v>
+        <v>4.368554666666666</v>
       </c>
       <c r="N8">
-        <v>10.63289</v>
+        <v>13.105664</v>
       </c>
       <c r="O8">
-        <v>0.2051032365887898</v>
+        <v>0.2305634602787257</v>
       </c>
       <c r="P8">
-        <v>0.2051032365887898</v>
+        <v>0.2305634602787257</v>
       </c>
       <c r="Q8">
-        <v>14.14454487579889</v>
+        <v>17.43398573437155</v>
       </c>
       <c r="R8">
-        <v>127.30090388219</v>
+        <v>156.905871609344</v>
       </c>
       <c r="S8">
-        <v>0.2015989220904203</v>
+        <v>0.2246897104990976</v>
       </c>
       <c r="T8">
-        <v>0.2015989220904202</v>
+        <v>0.2246897104990976</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,40 +977,40 @@
         <v>11.972371</v>
       </c>
       <c r="I9">
-        <v>0.9829143871318065</v>
+        <v>0.9745243683776804</v>
       </c>
       <c r="J9">
-        <v>0.9829143871318063</v>
+        <v>0.9745243683776804</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.01066666666666667</v>
+        <v>0.04818333333333333</v>
       </c>
       <c r="N9">
-        <v>0.032</v>
+        <v>0.14455</v>
       </c>
       <c r="O9">
-        <v>0.0006172643158013743</v>
+        <v>0.002543018666073676</v>
       </c>
       <c r="P9">
-        <v>0.0006172643158013743</v>
+        <v>0.002543018666073677</v>
       </c>
       <c r="Q9">
-        <v>0.04256843022222222</v>
+        <v>0.1922895808944444</v>
       </c>
       <c r="R9">
-        <v>0.383115872</v>
+        <v>1.73060622805</v>
       </c>
       <c r="S9">
-        <v>0.0006067179766642417</v>
+        <v>0.002478233659328101</v>
       </c>
       <c r="T9">
-        <v>0.0006067179766642416</v>
+        <v>0.002478233659328101</v>
       </c>
     </row>
   </sheetData>
